--- a/Prueba_MTB.xlsx
+++ b/Prueba_MTB.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciflo\OneDrive\Escritorio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4451B070-E7BF-4788-AD26-7B2D3B2EA05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
-  <si>
-    <t xml:space="preserve">Name compounds </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes ID </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t xml:space="preserve">SMILES </t>
   </si>
   <si>
-    <t>MIC microgram/ml Strain  drug sensitive of Mycobacterium tuberculosis H37Rv 94 to 99% inhibition MBT (μg/mL)</t>
-  </si>
-  <si>
     <t>phytanol</t>
   </si>
   <si>
@@ -311,65 +324,88 @@
   </si>
   <si>
     <t>COC1=C(O)C2=C(N=C1C1=COC(=N1)C1=CC=CC=C1N)C(=O)N(S2)[C@@H](CO)C(=O)NC[C@@H](O)C(=O)N[C@H](CO)CC(C)C</t>
+  </si>
+  <si>
+    <t>MIC50 (μg/mL)</t>
+  </si>
+  <si>
+    <t>CODES_ID</t>
+  </si>
+  <si>
+    <t>INTERNAL_COUNTER</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Quattrocento Sans"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF70AD47"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -379,62 +415,71 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -624,521 +669,636 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="77.63"/>
-    <col customWidth="1" min="4" max="4" width="29.38"/>
-    <col customWidth="1" min="5" max="22" width="77.63"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="21" width="77.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="E4" s="4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="E6" s="4">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="E7" s="4">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="E8" s="4">
+        <v>1.5649999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="E9" s="4">
+        <v>1.5649999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="E10" s="4">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="E11" s="4">
+        <v>1.5649999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="E12" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="E13" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="E14" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="E16" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="E17" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="E18" s="4">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="E19" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="4">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="5">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="5">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="E23" s="4">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E24" s="4">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="4">
         <v>12.5</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="5">
+    <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="4">
         <v>12.5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E30" s="4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="s">
+      <c r="E31" s="4">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6" t="s">
+      <c r="D32" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="5">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="E32" s="4">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="E33" s="4">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="5">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
+      <c r="E34" s="4">
+        <v>6.5049999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="5">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="D35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6" t="s">
+      <c r="E35" s="4">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="5">
-        <v>13.01</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D36" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="5">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="5">
-        <v>9.65</v>
+      <c r="E36" s="4">
+        <v>4.8250000000000002</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>